--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daxvi\OneDrive - Hogeschool Rotterdam\Documenten\Technische-informatica\Jaar-2\Project-5-6\Opleverset\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B46AD26-691E-47C3-A521-9FC0579CF5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125EE692-73C2-4836-8352-C8B3E37FA304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
@@ -198,7 +198,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -216,7 +216,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1382,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyril\Desktop\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125EE692-73C2-4836-8352-C8B3E37FA304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CD5D83-5389-4622-BBF0-C617E517C128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Requirement</t>
   </si>
@@ -71,9 +71,6 @@
     <t xml:space="preserve">Totaal: </t>
   </si>
   <si>
-    <t>6. Uitgebreid testplan met uitgevoerde tests erin uitgewerkt</t>
-  </si>
-  <si>
     <t>Om te kunnen weten waar het water heen verplaatst moet worden heb ik de data nodig van de sensor om dit te kunnen berekenen</t>
   </si>
   <si>
@@ -96,12 +93,6 @@
   </si>
   <si>
     <t>Ik wil graag een duidelijk en werkend schaalmodel zien, waarin goed wordt weergegeven wat er gebeurt wanneer de boerderij uit balans raakt</t>
-  </si>
-  <si>
-    <t>5. Ontwerp van het schaalmodel/prototype</t>
-  </si>
-  <si>
-    <t>Als opdrachtgever zou ik graag een 3D-ontwerp willen zien, zodat er eenvoudig aanpassingen in het ontwerp kunnen worden gedaan.</t>
   </si>
   <si>
     <t>1. Sensordata uitlezen en verwerken
@@ -109,32 +100,49 @@
 3. Data overzichtelijk weergeven in een interface</t>
   </si>
   <si>
-    <t>1. Geschikte sensor uitzoeken
-2. Sensor monteren op het schaalmodel
-3. Sensor kalibreren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Geschikte motor uitzoeken
+    <t>1. schaal 3D-model ontwerpen
+2. Schaalmodel bouwen met gekozen materialen en componenten
+3. Sensoren en pompen integreren in het model
+4. Test uitvoeren waarbij onbalans en stabilisatie zichtbaar worden</t>
+  </si>
+  <si>
+    <t>1. Geschikte sensoren uitzoeken
+2. testplan opstellen 
+3. testplan uitvoeren en sensor kiezen
+4. sensor kalibreren</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>De sensor moet accuraat aangeven of het water pass is.
+De sensor  data moet gebruikt kunnen worden de het stabilzatie algoritme</t>
+  </si>
+  <si>
+    <t>5. Algoritme om floating farm water pass houden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik will graag </t>
+  </si>
+  <si>
+    <t>1. ondzoek doen naar senzor data omzetten in nuttige informatie
+2. Algoratime om sensor data om te zetten in acties voor pompen
+3. Algoratime caliberen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Geschikte pomp uitzoeken
 2. Onderzoek doen naar de beste plaatsing van de motoren
-3. Motoren implementeren in het schaalmodel
+3. Pompen implementeren in het schaalmodel
 </t>
   </si>
   <si>
-    <t>1. Schaalmodel bouwen met gekozen materialen en componenten
-2. Sensoren en pompen integreren in het model
-3. Test uitvoeren waarbij onbalans en stabilisatie zichtbaar worden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 3D-model ontwerpen
-</t>
-  </si>
-  <si>
-    <t>1. Testplan opstellen met duidelijke testscenario's
-2. Tests meerdere keren uitvoeren en resultaten vastleggen
-3. Resultaten analyseren en verbeterpunten documenteren</t>
-  </si>
-  <si>
-    <t>Als opdrachtgever wil ik een duidelijk en overzichtelijk testplan in kunnen kijken een controleren of het schaalmodel betrouwbaar werkt</t>
+    <t>De pompen brengen water in een uit de hier voor bestemde ruimtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Het algortime stuurd de pompen aan op basis van de sensor data. En deze zo aanstuurd dat het platform  waterpass wordt </t>
+  </si>
+  <si>
+    <t>Het schaal model is functoneel representief van de floating farm. Hier op kunnen wij ons idee testen/presenteren</t>
   </si>
 </sst>
 </file>
@@ -166,12 +174,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -186,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -196,9 +210,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -216,7 +236,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -336,7 +356,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$J$15:$K$15</c:f>
+              <c:f>Blad1!$J$13:$K$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -350,7 +370,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$J$16:$K$16</c:f>
+              <c:f>Blad1!$J$14:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1028,13 +1048,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>339090</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1380,25 +1400,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.453125" customWidth="1"/>
-    <col min="2" max="2" width="46.90625" customWidth="1"/>
-    <col min="3" max="3" width="51.54296875" customWidth="1"/>
-    <col min="4" max="4" width="38.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.44140625" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,115 +1444,125 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1540,69 +1570,53 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="F13">
+        <f>SUM(F2:F12)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="F15">
-        <f>SUM(F2:F14)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="F16" t="s">
+      <c r="F14" t="s">
         <v>10</v>
       </c>
-      <c r="G16">
-        <f>G2+G3+G4+G5+G6+G7+G8+G9+G10+G11+G12+G13+G14</f>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f>H2+H3+H4+H5+H6+H7+H8+H9+H10+H11+H12+H13+H14</f>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f>H16</f>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f>G16-H16</f>
-        <v>0</v>
+      <c r="G14" t="e">
+        <f>G2+G3+G4+G5+#REF!+#REF!+G6+G7+G8+G9+G10+G11+G12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" t="e">
+        <f>H2+H3+H4+H5+#REF!+#REF!+H6+H7+H8+H9+H10+H11+H12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J14" t="e">
+        <f>H14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K14" t="e">
+        <f>G14-H14</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyril\Desktop\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CD5D83-5389-4622-BBF0-C617E517C128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8467452-C611-46DB-8304-A440AC799926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="ChangeLog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Requirement</t>
   </si>
@@ -71,9 +72,6 @@
     <t xml:space="preserve">Totaal: </t>
   </si>
   <si>
-    <t>Om te kunnen weten waar het water heen verplaatst moet worden heb ik de data nodig van de sensor om dit te kunnen berekenen</t>
-  </si>
-  <si>
     <t>1. Interface van zichtbare sensordata</t>
   </si>
   <si>
@@ -84,9 +82,6 @@
   </si>
   <si>
     <t>3. Stabiliseren met waterpompen</t>
-  </si>
-  <si>
-    <t>Als farmbeheerder wil ik dat het stabiliseren plaatsvindt door middel van waterverplaatsing, omdat dit een duurzame oplossing is.</t>
   </si>
   <si>
     <t>4. Werkend schaalmodel</t>
@@ -122,27 +117,46 @@
     <t>5. Algoritme om floating farm water pass houden</t>
   </si>
   <si>
-    <t xml:space="preserve">Ik will graag </t>
-  </si>
-  <si>
-    <t>1. ondzoek doen naar senzor data omzetten in nuttige informatie
+    <t>De pompen brengen water in een uit de hier voor bestemde ruimtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Het algortime stuurd de pompen aan op basis van de sensor data. En deze zo aanstuurd dat het platform  waterpass wordt </t>
+  </si>
+  <si>
+    <t>Het schaal model is functoneel representief van de floating farm. Hier op kunnen wij ons idee testen/presenteren</t>
+  </si>
+  <si>
+    <t>changelog</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>maak document en eerste versie backlog</t>
+  </si>
+  <si>
+    <t>verbetetingen product backlog</t>
+  </si>
+  <si>
+    <t>Als systeem wil ik de hoek nauwkeurig berekenen, zodat ik weet naar welke kant water verplaatst moet worden</t>
+  </si>
+  <si>
+    <t>Als beheerder wil ik dat de boerderij zichzelf stabiliseert door water te verplaatsen met pompen, zodat dit duurzaam gebeurt.</t>
+  </si>
+  <si>
+    <t>Als systeem wil ik sensordata omzetten in pompacties, zodat het platform automatisch waterpas blijft.</t>
+  </si>
+  <si>
+    <t>1. Onderzoek naar data-analyse en filtering
 2. Algoratime om sensor data om te zetten in acties voor pompen
-3. Algoratime caliberen</t>
+3. Algoritme testen en kalibreren</t>
   </si>
   <si>
     <t xml:space="preserve">1. Geschikte pomp uitzoeken
-2. Onderzoek doen naar de beste plaatsing van de motoren
-3. Pompen implementeren in het schaalmodel
+2. Testplan opstellen
+3. Testplant uitvoeren en  de beste plaatsing van de motoren keizen
+4. Pompen implementeren in het schaalmodel
 </t>
-  </si>
-  <si>
-    <t>De pompen brengen water in een uit de hier voor bestemde ruimtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Het algortime stuurd de pompen aan op basis van de sensor data. En deze zo aanstuurd dat het platform  waterpass wordt </t>
-  </si>
-  <si>
-    <t>Het schaal model is functoneel representief van de floating farm. Hier op kunnen wij ons idee testen/presenteren</t>
   </si>
 </sst>
 </file>
@@ -200,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -216,6 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -356,7 +371,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$J$13:$K$13</c:f>
+              <c:f>'Product backlog'!$J$13:$K$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -370,7 +385,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$J$14:$K$14</c:f>
+              <c:f>'Product backlog'!$J$14:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1402,9 +1417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1446,88 +1459,90 @@
     </row>
     <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1624,4 +1639,47 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADAB6AD-787A-48F7-90D8-ECAF8829638B}">
+  <dimension ref="B4:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>45916</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>45919</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyril\Desktop\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8467452-C611-46DB-8304-A440AC799926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5FAAB0-1E55-4CE1-9825-8C5C5B39AC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>1. Interface van zichtbare sensordata</t>
   </si>
   <si>
-    <t>Ik wil duidelijk kunnen zien in welke hoek de boerderij zich bevindt en in welke toestand de andere onderdelen verkeren.</t>
-  </si>
-  <si>
     <t>2. Hoekberekening met behulp van sensoren</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
   </si>
   <si>
     <t>4. Werkend schaalmodel</t>
-  </si>
-  <si>
-    <t>Ik wil graag een duidelijk en werkend schaalmodel zien, waarin goed wordt weergegeven wat er gebeurt wanneer de boerderij uit balans raakt</t>
   </si>
   <si>
     <t>1. Sensordata uitlezen en verwerken
@@ -114,9 +108,6 @@
 De sensor  data moet gebruikt kunnen worden de het stabilzatie algoritme</t>
   </si>
   <si>
-    <t>5. Algoritme om floating farm water pass houden</t>
-  </si>
-  <si>
     <t>De pompen brengen water in een uit de hier voor bestemde ruimtes</t>
   </si>
   <si>
@@ -136,15 +127,6 @@
   </si>
   <si>
     <t>verbetetingen product backlog</t>
-  </si>
-  <si>
-    <t>Als systeem wil ik de hoek nauwkeurig berekenen, zodat ik weet naar welke kant water verplaatst moet worden</t>
-  </si>
-  <si>
-    <t>Als beheerder wil ik dat de boerderij zichzelf stabiliseert door water te verplaatsen met pompen, zodat dit duurzaam gebeurt.</t>
-  </si>
-  <si>
-    <t>Als systeem wil ik sensordata omzetten in pompacties, zodat het platform automatisch waterpas blijft.</t>
   </si>
   <si>
     <t>1. Onderzoek naar data-analyse en filtering
@@ -157,6 +139,24 @@
 3. Testplant uitvoeren en  de beste plaatsing van de motoren keizen
 4. Pompen implementeren in het schaalmodel
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als beheerder wil ik dat de boerderij zichzelf stabiliseert door water te verplaatsen met pompen, zodat dit duurzaam en efficient gebeurd. </t>
+  </si>
+  <si>
+    <t>Als systeem wil ik de hoek nauwkeurig berekenen, zodat ik weet naar welke kant water verplaatst moet worden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik wil duidelijk kunnen zien in welke hoek de boerderij zich bevindt en in welke toestand de andere onderdelen verkeren, om een duidelijk overzicht te hebben van het systeem. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik wil graag een duidelijk en werkend schaalmodel zien, waarin goed wordt weergegeven wat er gebeurt wanneer de boerderij uit balans raakt. </t>
+  </si>
+  <si>
+    <t>5. Algoritme om floating farm waterpas houden</t>
+  </si>
+  <si>
+    <t>Als systeem wil ik sensordata waterpas hebben, zodat ik altijd nauwkeurige en realistische lezingen krijg.</t>
   </si>
 </sst>
 </file>
@@ -233,7 +233,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -251,7 +251,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1417,21 +1417,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" customWidth="1"/>
-    <col min="3" max="3" width="51.5546875" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.453125" customWidth="1"/>
+    <col min="2" max="2" width="46.90625" customWidth="1"/>
+    <col min="3" max="3" width="51.54296875" customWidth="1"/>
+    <col min="4" max="4" width="38.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1457,95 +1459,95 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1553,7 +1555,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1561,7 +1563,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1569,7 +1571,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1577,7 +1579,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1585,7 +1587,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1593,7 +1595,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1609,7 +1611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1649,34 +1651,34 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="7">
         <v>45916</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="7">
         <v>45919</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5FAAB0-1E55-4CE1-9825-8C5C5B39AC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0623BE-C9B0-4E6B-A405-444D9AE4F433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>De pompen brengen water in een uit de hier voor bestemde ruimtes</t>
   </si>
   <si>
-    <t xml:space="preserve">Het algortime stuurd de pompen aan op basis van de sensor data. En deze zo aanstuurd dat het platform  waterpass wordt </t>
-  </si>
-  <si>
     <t>Het schaal model is functoneel representief van de floating farm. Hier op kunnen wij ons idee testen/presenteren</t>
   </si>
   <si>
@@ -127,11 +124,6 @@
   </si>
   <si>
     <t>verbetetingen product backlog</t>
-  </si>
-  <si>
-    <t>1. Onderzoek naar data-analyse en filtering
-2. Algoratime om sensor data om te zetten in acties voor pompen
-3. Algoritme testen en kalibreren</t>
   </si>
   <si>
     <t xml:space="preserve">1. Geschikte pomp uitzoeken
@@ -153,10 +145,18 @@
     <t xml:space="preserve">Ik wil graag een duidelijk en werkend schaalmodel zien, waarin goed wordt weergegeven wat er gebeurt wanneer de boerderij uit balans raakt. </t>
   </si>
   <si>
-    <t>5. Algoritme om floating farm waterpas houden</t>
-  </si>
-  <si>
     <t>Als systeem wil ik sensordata waterpas hebben, zodat ik altijd nauwkeurige en realistische lezingen krijg.</t>
+  </si>
+  <si>
+    <t>1. Onderzoek naar data-analyse en filtering
+2. Algoritme om sensor data waterpas te houden
+3. Algoritme testen en kalibreren</t>
+  </si>
+  <si>
+    <t>Het algortime geeft accurate data die waterpas is en gehouden word.</t>
+  </si>
+  <si>
+    <t>5. Algoritme om constante data over de positie van de Floating Farm te krijgen</t>
   </si>
 </sst>
 </file>
@@ -1417,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1464,7 +1464,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>15</v>
@@ -1480,7 +1480,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -1498,10 +1498,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>20</v>
@@ -1516,31 +1516,31 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1548,10 +1548,6 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
@@ -1659,10 +1655,10 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
@@ -1670,7 +1666,7 @@
         <v>45916</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
@@ -1678,7 +1674,7 @@
         <v>45919</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0623BE-C9B0-4E6B-A405-444D9AE4F433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9AB4C0-9D71-4CE3-831A-7D630726D0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Requirement</t>
   </si>
@@ -108,9 +108,6 @@
 De sensor  data moet gebruikt kunnen worden de het stabilzatie algoritme</t>
   </si>
   <si>
-    <t>De pompen brengen water in een uit de hier voor bestemde ruimtes</t>
-  </si>
-  <si>
     <t>Het schaal model is functoneel representief van de floating farm. Hier op kunnen wij ons idee testen/presenteren</t>
   </si>
   <si>
@@ -124,13 +121,6 @@
   </si>
   <si>
     <t>verbetetingen product backlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Geschikte pomp uitzoeken
-2. Testplan opstellen
-3. Testplant uitvoeren en  de beste plaatsing van de motoren keizen
-4. Pompen implementeren in het schaalmodel
-</t>
   </si>
   <si>
     <t xml:space="preserve">Als beheerder wil ik dat de boerderij zichzelf stabiliseert door water te verplaatsen met pompen, zodat dit duurzaam en efficient gebeurd. </t>
@@ -157,6 +147,30 @@
   </si>
   <si>
     <t>5. Algoritme om constante data over de positie van de Floating Farm te krijgen</t>
+  </si>
+  <si>
+    <t>De pompen brengen water in een uit de hier voor bestemde ruimtes.</t>
+  </si>
+  <si>
+    <t>1. Geschikte pomp uitzoeken
+2. Testen en de beste plaatsing van de pompen kiezen
+3. Pompen implementeren in het schaalmodel</t>
+  </si>
+  <si>
+    <t>6. Algoritme om de pompen aan te sturen op basis van sensordata.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als systeemeigenaar wil ik dat het systeem uit zichzelf de boerderij stabiliseert op basis van de gemeten data, zodat deze niet door een mens geregeld hoeft te worden en altijd nauwkeurig zal zijn. </t>
+  </si>
+  <si>
+    <t>1. Testen gebruik van pompen + sensor(en)
+2. Implementeren en tunen tot gewenst gebruik</t>
+  </si>
+  <si>
+    <t>De pompen worden automatisch aangestuurd door het algoritme op basis van de sensordata</t>
+  </si>
+  <si>
+    <t>Een interface met bruikbare en relevante data die door iedereen gebruikt, bediend en bekeken kan worden</t>
   </si>
 </sst>
 </file>
@@ -1417,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1464,12 +1478,14 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1480,7 +1496,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -1493,18 +1509,18 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1516,13 +1532,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1531,24 +1547,38 @@
     </row>
     <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E7" s="2"/>
+    <row r="7" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1655,10 +1685,10 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
@@ -1666,7 +1696,7 @@
         <v>45916</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
@@ -1674,7 +1704,7 @@
         <v>45919</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9AB4C0-9D71-4CE3-831A-7D630726D0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C502DE-2C9C-4977-AA13-4E52103462B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
@@ -95,12 +95,6 @@
 4. Test uitvoeren waarbij onbalans en stabilisatie zichtbaar worden</t>
   </si>
   <si>
-    <t>1. Geschikte sensoren uitzoeken
-2. testplan opstellen 
-3. testplan uitvoeren en sensor kiezen
-4. sensor kalibreren</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -171,6 +165,11 @@
   </si>
   <si>
     <t>Een interface met bruikbare en relevante data die door iedereen gebruikt, bediend en bekeken kan worden</t>
+  </si>
+  <si>
+    <t>1. Geschikte sensoren uitzoeken
+2. Sensoren testen en kiezen
+3. sensor kalibreren</t>
   </si>
 </sst>
 </file>
@@ -1431,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1478,16 +1477,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -1496,16 +1495,16 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -1514,16 +1513,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -1532,52 +1531,52 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -1685,10 +1684,10 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
@@ -1696,7 +1695,7 @@
         <v>45916</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
@@ -1704,7 +1703,7 @@
         <v>45919</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C502DE-2C9C-4977-AA13-4E52103462B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD695C-939F-4682-B2C2-2B19BDCDBDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>Het algortime geeft accurate data die waterpas is en gehouden word.</t>
   </si>
   <si>
-    <t>5. Algoritme om constante data over de positie van de Floating Farm te krijgen</t>
-  </si>
-  <si>
     <t>De pompen brengen water in een uit de hier voor bestemde ruimtes.</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
     <t>1. Geschikte sensoren uitzoeken
 2. Sensoren testen en kiezen
 3. sensor kalibreren</t>
+  </si>
+  <si>
+    <t>5. Algoritme om constante en nauwkeurige data op te halen van de sensor</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1483,7 +1483,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -1498,7 +1498,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>18</v>
@@ -1516,10 +1516,10 @@
         <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>28</v>
@@ -1564,16 +1564,16 @@
     </row>
     <row r="7" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD695C-939F-4682-B2C2-2B19BDCDBDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331376A2-EBEB-444B-8DA4-C0772A31B419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
@@ -78,15 +78,7 @@
     <t>2. Hoekberekening met behulp van sensoren</t>
   </si>
   <si>
-    <t>3. Stabiliseren met waterpompen</t>
-  </si>
-  <si>
     <t>4. Werkend schaalmodel</t>
-  </si>
-  <si>
-    <t>1. Sensordata uitlezen en verwerken
-2. Data versturen naar webserver
-3. Data overzichtelijk weergeven in een interface</t>
   </si>
   <si>
     <t>1. schaal 3D-model ontwerpen
@@ -140,14 +132,6 @@
     <t>Het algortime geeft accurate data die waterpas is en gehouden word.</t>
   </si>
   <si>
-    <t>De pompen brengen water in een uit de hier voor bestemde ruimtes.</t>
-  </si>
-  <si>
-    <t>1. Geschikte pomp uitzoeken
-2. Testen en de beste plaatsing van de pompen kiezen
-3. Pompen implementeren in het schaalmodel</t>
-  </si>
-  <si>
     <t>6. Algoritme om de pompen aan te sturen op basis van sensordata.</t>
   </si>
   <si>
@@ -170,6 +154,22 @@
   </si>
   <si>
     <t>5. Algoritme om constante en nauwkeurige data op te halen van de sensor</t>
+  </si>
+  <si>
+    <t>3. Stabiliseren met waterpompsysteem</t>
+  </si>
+  <si>
+    <t>1. Geschikte pompsystemen uitzoeken
+2. Testen en de beste plaatsing van de bijbehorende pompen kiezen
+3. Pompsysteem implementeren in het schaalmodel</t>
+  </si>
+  <si>
+    <t>Het pompsysteem brengt water in en uit de hier voor bestemde ruimtes om de Floating Farm te stabiliseren.</t>
+  </si>
+  <si>
+    <t>1. Sensordata uitlezen en verwerken
+2. Data versturen naar een interface
+3. Data overzichtelijk en netjesweergeven in een interface</t>
   </si>
 </sst>
 </file>
@@ -201,18 +201,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -237,13 +231,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1431,7 +1425,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1473,20 +1467,20 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -1495,88 +1489,88 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -1684,26 +1678,26 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>45916</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>45919</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331376A2-EBEB-444B-8DA4-C0772A31B419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9416F598-D2F7-4CFD-B4E9-2416A9F9E118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Requirement</t>
   </si>
@@ -169,7 +169,33 @@
   <si>
     <t>1. Sensordata uitlezen en verwerken
 2. Data versturen naar een interface
-3. Data overzichtelijk en netjesweergeven in een interface</t>
+3. Data weergeven op een interface</t>
+  </si>
+  <si>
+    <t>7. De interface heeft…</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik dat … zodat …</t>
+  </si>
+  <si>
+    <t>De interface bevat</t>
+  </si>
+  <si>
+    <t>8. Het schaalmodel is qua uiterlijk realistisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als opdrachtgever wil ik dat het schaalmodel en realistische representatie is van het echte gebouw, zodat het compleet duidelijk is hoe het uiteindelijk in werking gaat. </t>
+  </si>
+  <si>
+    <t>1. Schaalmodel maken
+2. 3D design maken op schaal van de rest van de Farm
+3. Farm namaken</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Het schaalmodel is op 1:100 schaal van de Floating Farm, met zo veel mogelijk detail</t>
   </si>
 </sst>
 </file>
@@ -1424,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1575,19 +1601,37 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
+    <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9416F598-D2F7-4CFD-B4E9-2416A9F9E118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4569AE77-DDDB-4D4C-9605-D8F440D3CA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Requirement</t>
   </si>
@@ -70,15 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">Totaal: </t>
-  </si>
-  <si>
-    <t>1. Interface van zichtbare sensordata</t>
-  </si>
-  <si>
-    <t>2. Hoekberekening met behulp van sensoren</t>
-  </si>
-  <si>
-    <t>4. Werkend schaalmodel</t>
   </si>
   <si>
     <t>1. schaal 3D-model ontwerpen
@@ -132,9 +123,6 @@
     <t>Het algortime geeft accurate data die waterpas is en gehouden word.</t>
   </si>
   <si>
-    <t>6. Algoritme om de pompen aan te sturen op basis van sensordata.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Als systeemeigenaar wil ik dat het systeem uit zichzelf de boerderij stabiliseert op basis van de gemeten data, zodat deze niet door een mens geregeld hoeft te worden en altijd nauwkeurig zal zijn. </t>
   </si>
   <si>
@@ -153,12 +141,6 @@
 3. sensor kalibreren</t>
   </si>
   <si>
-    <t>5. Algoritme om constante en nauwkeurige data op te halen van de sensor</t>
-  </si>
-  <si>
-    <t>3. Stabiliseren met waterpompsysteem</t>
-  </si>
-  <si>
     <t>1. Geschikte pompsystemen uitzoeken
 2. Testen en de beste plaatsing van de bijbehorende pompen kiezen
 3. Pompsysteem implementeren in het schaalmodel</t>
@@ -172,18 +154,6 @@
 3. Data weergeven op een interface</t>
   </si>
   <si>
-    <t>7. De interface heeft…</t>
-  </si>
-  <si>
-    <t>Als gebruiker wil ik dat … zodat …</t>
-  </si>
-  <si>
-    <t>De interface bevat</t>
-  </si>
-  <si>
-    <t>8. Het schaalmodel is qua uiterlijk realistisch</t>
-  </si>
-  <si>
     <t xml:space="preserve">Als opdrachtgever wil ik dat het schaalmodel en realistische representatie is van het echte gebouw, zodat het compleet duidelijk is hoe het uiteindelijk in werking gaat. </t>
   </si>
   <si>
@@ -196,6 +166,46 @@
   </si>
   <si>
     <t>Het schaalmodel is op 1:100 schaal van de Floating Farm, met zo veel mogelijk detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Het systeem heeft een interface met sensordata in een 
+precieze grafiek. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Het systeem bepaalt de hoek van Floating Farm relatief tot waterpas met behulp van een sensor(en). </t>
+  </si>
+  <si>
+    <t>3. Het systeem kan de Floating Farm in de Rotterdamse Haven stabiliseren met een waterpompsysteem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Het eindproduct bevat een schaalmodel die zichtzelf waterpas houd met onze oplossing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Het systeem heeft een algoritme om met nauwkeurigheid en precisie constant data op kan halen van de MPU-6050. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Het systeem heeft een algoritme om de pompen aan te kunnen sturen met gebruik van de afgelezen sensordata bij de MPU-6050 vandaan. </t>
+  </si>
+  <si>
+    <t>8. Het schaalmodel lijkt sprekend op het fysieke uiterlijk van
+ de Floating Farm die in de Rotterdamse Haven ligt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. De miniatuur waterpompen kunnen binnen … minuten de ballasttanks opvullen en leeg laten lopen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. De Ballasttanks kunnen de Floating Farm … graden kantelen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Het complete systeem heeft een maximale afwijking 
+van … graden tot waterpas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Het systeem is bruikbaar voor toekomstige designs en 
+uitbreidingen aan de Floating Farm. </t>
+  </si>
+  <si>
+    <t>Als eigenaar wil ik dat de pompen de ballasttanks binnen … minuten kunnen legen en opvullen om in noodgevallen snel te kunnen reageren.</t>
   </si>
 </sst>
 </file>
@@ -247,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -258,9 +268,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1450,13 +1457,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.453125" customWidth="1"/>
+    <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="46.90625" customWidth="1"/>
     <col min="3" max="3" width="51.54296875" customWidth="1"/>
     <col min="4" max="4" width="38.08984375" customWidth="1"/>
@@ -1494,164 +1501,168 @@
     </row>
     <row r="2" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
+      <c r="A9" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
@@ -1722,10 +1733,10 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
@@ -1733,7 +1744,7 @@
         <v>45916</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
@@ -1741,7 +1752,7 @@
         <v>45919</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4569AE77-DDDB-4D4C-9605-D8F440D3CA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466BBB17-C94E-4A01-A38A-2AA82E2141AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>Requirement</t>
   </si>
@@ -165,9 +165,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Het schaalmodel is op 1:100 schaal van de Floating Farm, met zo veel mogelijk detail</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Het systeem heeft een interface met sensordata in een 
 precieze grafiek. </t>
   </si>
@@ -206,6 +203,53 @@
   </si>
   <si>
     <t>Als eigenaar wil ik dat de pompen de ballasttanks binnen … minuten kunnen legen en opvullen om in noodgevallen snel te kunnen reageren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als eigenaar wil ik dat de Ballasttanks de Floating Farm … graden kunnen kantelen, zodat mijn boerderij altijd waterpas kan staan. </t>
+  </si>
+  <si>
+    <t>1. Berekenen hoeveel drijfvermogen de Ballasttanks moeten hebben.
+2. Maak de Ballasttanks gebaseerd op deze berekeningen.</t>
+  </si>
+  <si>
+    <t>1. Overleg met opdrachtgever binnen hoeveel minuten.
+2. Gebaseerd op het overleg berekenen hoeveel water de pompen moeten kunnen verplaatsen om dit te bereiken. 
+3. Pomp uitkiezen en bestellen
+4. Pomp implementeren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De pompen kunnen de ballasttanks binnen … minuten leeg en vol pompen/laten lopen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als eigenaar wil ik dat het systeem niet meer dan … graden afwijkt om te zorgen dat mijn lezingen nauwkeurig en correct zijn. </t>
+  </si>
+  <si>
+    <t>1. Maximale afwijking berekenen
+2.  Huidige afwijkingen bekijken
+3. Aanpassingen implementeren zo nodig</t>
+  </si>
+  <si>
+    <t>De ballasttanks hebben het drijfvermogen/inhoud om de Floating Farm … graden te draaien.</t>
+  </si>
+  <si>
+    <t>Het schaalmodel is op 1:100 schaal van de Floating Farm, met zo veel mogelijk detail.</t>
+  </si>
+  <si>
+    <t>Het systeem heeft ten alle tijden niet meer dan … graden afwijking tot waterpas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als eigenaar wil ik dat het design uitbreidbaar en herbruikbaar is, om te zorgen dat dit probleem opgelost is voordat het onstaat bij volgende Floating Farms. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Onderzoeken wat er nodig is om een design herbruikbaar te maken.
+2. Rekening houden met de onderzochte dingen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Het systeem is gemakkelijk toe te passen bij
+ toekomstige Floating Farms en is ook makkelijk uitbreidbaar. </t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -1457,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1501,7 +1545,7 @@
     </row>
     <row r="2" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>21</v>
@@ -1519,7 +1563,7 @@
     </row>
     <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>20</v>
@@ -1537,7 +1581,7 @@
     </row>
     <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
@@ -1555,7 +1599,7 @@
     </row>
     <row r="5" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>22</v>
@@ -1573,7 +1617,7 @@
     </row>
     <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -1591,7 +1635,7 @@
     </row>
     <row r="7" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>26</v>
@@ -1607,15 +1651,19 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1623,7 +1671,7 @@
     </row>
     <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>34</v>
@@ -1632,41 +1680,65 @@
         <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466BBB17-C94E-4A01-A38A-2AA82E2141AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A285AC4F-9ECD-41EA-B7FC-E6FFF8AB721F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t>maak document en eerste versie backlog</t>
   </si>
   <si>
-    <t>verbetetingen product backlog</t>
-  </si>
-  <si>
     <t xml:space="preserve">Als beheerder wil ik dat de boerderij zichzelf stabiliseert door water te verplaatsen met pompen, zodat dit duurzaam en efficient gebeurd. </t>
   </si>
   <si>
@@ -163,10 +160,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Het systeem heeft een interface met sensordata in een 
-precieze grafiek. </t>
   </si>
   <si>
     <t xml:space="preserve">2. Het systeem bepaalt de hoek van Floating Farm relatief tot waterpas met behulp van een sensor(en). </t>
@@ -250,6 +243,12 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>verbeteringen product backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Het systeem heeft een interface met sensordata waarin de data overzichtelijk voor weergeven. Bijv. een grafiek.  </t>
   </si>
 </sst>
 </file>
@@ -1501,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1545,16 +1544,16 @@
     </row>
     <row r="2" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1563,13 +1562,13 @@
     </row>
     <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -1581,16 +1580,16 @@
     </row>
     <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1599,10 +1598,10 @@
     </row>
     <row r="5" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -1617,16 +1616,16 @@
     </row>
     <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1635,16 +1634,16 @@
     </row>
     <row r="7" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -1653,16 +1652,16 @@
     </row>
     <row r="8" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -1671,34 +1670,34 @@
     </row>
     <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -1707,16 +1706,16 @@
     </row>
     <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -1725,19 +1724,19 @@
     </row>
     <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1794,7 +1793,7 @@
   <dimension ref="B4:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1824,7 +1823,7 @@
         <v>45919</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A285AC4F-9ECD-41EA-B7FC-E6FFF8AB721F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A074FC-EF8D-40D1-9DB0-51B7F25A9891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>Requirement</t>
   </si>
@@ -123,10 +123,6 @@
     <t xml:space="preserve">Als systeemeigenaar wil ik dat het systeem uit zichzelf de boerderij stabiliseert op basis van de gemeten data, zodat deze niet door een mens geregeld hoeft te worden en altijd nauwkeurig zal zijn. </t>
   </si>
   <si>
-    <t>1. Testen gebruik van pompen + sensor(en)
-2. Implementeren en tunen tot gewenst gebruik</t>
-  </si>
-  <si>
     <t>De pompen worden automatisch aangestuurd door het algoritme op basis van de sensordata</t>
   </si>
   <si>
@@ -144,11 +140,6 @@
   </si>
   <si>
     <t>Het pompsysteem brengt water in en uit de hier voor bestemde ruimtes om de Floating Farm te stabiliseren.</t>
-  </si>
-  <si>
-    <t>1. Sensordata uitlezen en verwerken
-2. Data versturen naar een interface
-3. Data weergeven op een interface</t>
   </si>
   <si>
     <t xml:space="preserve">Als opdrachtgever wil ik dat het schaalmodel en realistische representatie is van het echte gebouw, zodat het compleet duidelijk is hoe het uiteindelijk in werking gaat. </t>
@@ -249,13 +240,84 @@
   </si>
   <si>
     <t xml:space="preserve">1. Het systeem heeft een interface met sensordata waarin de data overzichtelijk voor weergeven. Bijv. een grafiek.  </t>
+  </si>
+  <si>
+    <t>12. Het systeem maakt gebruik van ballasttanks voor een betrouwbaar, uitbreidbaar en betaalbaar gebruik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als eigenaar wil ik dat mijn systeem ballasttanks gebruikt, om te zorgen dat het makkelijk toegepast kan worden op andere systemen, en ook niet te grote kosten veroorzaakt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Floating farm gebruikt meerdere ballasttanks om zichzelf te stabiliseren. </t>
+  </si>
+  <si>
+    <t>1. Sensordata uitlezen en verwerken
+2. Data versturen naar een interface
+3. Data weergeven op een interface
+4. Uitbreiden volgens wensen opdrachtgever</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Onderzoeken wat een ballasttank inhoud of doet, en kijken wat voor Ballasttanks er zijn. 
+2. Een ballasttanks uitkiezen en een demo-versie maken.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Meerdere nettere ballasttanks maken gebaseerd op berekeningen van requirement 9, en deze toevoegen aan het schaalmodel.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Testen gebruik van pompen + sensor(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Implementeren en tunen tot gewenst gebruik</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,13 +341,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -300,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -312,6 +399,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1500,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1544,16 +1640,16 @@
     </row>
     <row r="2" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1561,16 +1657,16 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1580,16 +1676,16 @@
     </row>
     <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1597,16 +1693,16 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1615,16 +1711,16 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1634,16 +1730,16 @@
     </row>
     <row r="7" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -1651,17 +1747,17 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>50</v>
+      <c r="A8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -1670,34 +1766,34 @@
     </row>
     <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>53</v>
+      <c r="A10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -1706,16 +1802,16 @@
     </row>
     <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -1723,28 +1819,39 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+    <row r="13" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F13">
         <f>SUM(F2:F12)</f>
         <v>0</v>
@@ -1823,7 +1930,7 @@
         <v>45919</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A074FC-EF8D-40D1-9DB0-51B7F25A9891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BE5902-D5E5-4F90-8708-1900D2EE78C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
@@ -1597,7 +1597,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BE5902-D5E5-4F90-8708-1900D2EE78C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C58C162-6206-4A83-83E9-09DDD22CBDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
+    <workbookView xWindow="1770" yWindow="1100" windowWidth="19200" windowHeight="11170" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -1596,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C58C162-6206-4A83-83E9-09DDD22CBDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E86AEBF-7CE3-45A0-89E3-1B1B423042A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1100" windowWidth="19200" windowHeight="11170" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>Requirement</t>
   </si>
@@ -70,12 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">Totaal: </t>
-  </si>
-  <si>
-    <t>1. schaal 3D-model ontwerpen
-2. Schaalmodel bouwen met gekozen materialen en componenten
-3. Sensoren en pompen integreren in het model
-4. Test uitvoeren waarbij onbalans en stabilisatie zichtbaar worden</t>
   </si>
   <si>
     <t>M</t>
@@ -85,9 +79,6 @@
 De sensor  data moet gebruikt kunnen worden de het stabilzatie algoritme</t>
   </si>
   <si>
-    <t>Het schaal model is functoneel representief van de floating farm. Hier op kunnen wij ons idee testen/presenteren</t>
-  </si>
-  <si>
     <t>changelog</t>
   </si>
   <si>
@@ -104,9 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ik wil duidelijk kunnen zien in welke hoek de boerderij zich bevindt en in welke toestand de andere onderdelen verkeren, om een duidelijk overzicht te hebben van het systeem. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ik wil graag een duidelijk en werkend schaalmodel zien, waarin goed wordt weergegeven wat er gebeurt wanneer de boerderij uit balans raakt. </t>
   </si>
   <si>
     <t>Als systeem wil ik sensordata waterpas hebben, zodat ik altijd nauwkeurige en realistische lezingen krijg.</t>
@@ -134,22 +122,12 @@
 3. sensor kalibreren</t>
   </si>
   <si>
-    <t>1. Geschikte pompsystemen uitzoeken
-2. Testen en de beste plaatsing van de bijbehorende pompen kiezen
-3. Pompsysteem implementeren in het schaalmodel</t>
-  </si>
-  <si>
     <t>Het pompsysteem brengt water in en uit de hier voor bestemde ruimtes om de Floating Farm te stabiliseren.</t>
   </si>
   <si>
     <t xml:space="preserve">Als opdrachtgever wil ik dat het schaalmodel en realistische representatie is van het echte gebouw, zodat het compleet duidelijk is hoe het uiteindelijk in werking gaat. </t>
   </si>
   <si>
-    <t>1. Schaalmodel maken
-2. 3D design maken op schaal van de rest van de Farm
-3. Farm namaken</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -157,33 +135,6 @@
   </si>
   <si>
     <t>3. Het systeem kan de Floating Farm in de Rotterdamse Haven stabiliseren met een waterpompsysteem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Het eindproduct bevat een schaalmodel die zichtzelf waterpas houd met onze oplossing. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Het systeem heeft een algoritme om met nauwkeurigheid en precisie constant data op kan halen van de MPU-6050. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Het systeem heeft een algoritme om de pompen aan te kunnen sturen met gebruik van de afgelezen sensordata bij de MPU-6050 vandaan. </t>
-  </si>
-  <si>
-    <t>8. Het schaalmodel lijkt sprekend op het fysieke uiterlijk van
- de Floating Farm die in de Rotterdamse Haven ligt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. De miniatuur waterpompen kunnen binnen … minuten de ballasttanks opvullen en leeg laten lopen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. De Ballasttanks kunnen de Floating Farm … graden kantelen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10. Het complete systeem heeft een maximale afwijking 
-van … graden tot waterpas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11. Het systeem is bruikbaar voor toekomstige designs en 
-uitbreidingen aan de Floating Farm. </t>
   </si>
   <si>
     <t>Als eigenaar wil ik dat de pompen de ballasttanks binnen … minuten kunnen legen en opvullen om in noodgevallen snel te kunnen reageren.</t>
@@ -194,12 +145,6 @@
   <si>
     <t>1. Berekenen hoeveel drijfvermogen de Ballasttanks moeten hebben.
 2. Maak de Ballasttanks gebaseerd op deze berekeningen.</t>
-  </si>
-  <si>
-    <t>1. Overleg met opdrachtgever binnen hoeveel minuten.
-2. Gebaseerd op het overleg berekenen hoeveel water de pompen moeten kunnen verplaatsen om dit te bereiken. 
-3. Pomp uitkiezen en bestellen
-4. Pomp implementeren</t>
   </si>
   <si>
     <t xml:space="preserve">De pompen kunnen de ballasttanks binnen … minuten leeg en vol pompen/laten lopen. </t>
@@ -240,9 +185,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. Het systeem heeft een interface met sensordata waarin de data overzichtelijk voor weergeven. Bijv. een grafiek.  </t>
-  </si>
-  <si>
-    <t>12. Het systeem maakt gebruik van ballasttanks voor een betrouwbaar, uitbreidbaar en betaalbaar gebruik.</t>
   </si>
   <si>
     <t xml:space="preserve">Als eigenaar wil ik dat mijn systeem ballasttanks gebruikt, om te zorgen dat het makkelijk toegepast kan worden op andere systemen, en ook niet te grote kosten veroorzaakt. </t>
@@ -311,6 +253,137 @@
       <t xml:space="preserve">
 2. Implementeren en tunen tot gewenst gebruik</t>
     </r>
+  </si>
+  <si>
+    <t>Meer requirements toegevoegd</t>
+  </si>
+  <si>
+    <t>15/10/2025</t>
+  </si>
+  <si>
+    <t>19/9/2025</t>
+  </si>
+  <si>
+    <t>16/9/2025</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Schaalmodel maken
+2. 3D design maken op schaal van de rest van de Farm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Farm namaken</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Geschikte pompsystemen uitzoeken
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Testen en de beste plaatsing van de bijbehorende pompen kiezen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Pompsysteem implementeren in het schaalmodel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Overleg met opdrachtgever binnen hoeveel minuten.
+2. Gebaseerd op het overleg berekenen hoeveel water de pompen moeten kunnen verplaatsen om dit te bereiken. 
+3. Pomp uitkiezen en bestellen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. Pomp implementeren</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Het systeem heeft een algoritme om met nauwkeurigheid en precisie constant data op kan halen van de MPU-6050. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Het systeem heeft een algoritme om de pompen aan te kunnen sturen met gebruik van de afgelezen sensordata bij de MPU-6050 vandaan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. De miniatuur waterpompen kunnen binnen … minuten de ballasttanks opvullen en leeg laten lopen. </t>
+  </si>
+  <si>
+    <t>7. Het schaalmodel lijkt sprekend op het fysieke uiterlijk van
+ de Floating Farm die in de Rotterdamse Haven ligt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. De Ballasttanks kunnen de Floating Farm … graden kantelen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Het complete systeem heeft een maximale afwijking 
+van … graden tot waterpas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Het systeem is bruikbaar voor toekomstige designs en 
+uitbreidingen aan de Floating Farm. </t>
+  </si>
+  <si>
+    <t>11. Het systeem maakt gebruik van ballasttanks voor een betrouwbaar, uitbreidbaar en betaalbaar gebruik.</t>
   </si>
 </sst>
 </file>
@@ -355,7 +428,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,7 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,16 +483,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1596,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1639,218 +1730,204 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
+      <c r="A2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
+      <c r="A3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
+    <row r="7" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>48</v>
+    <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
+    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>52</v>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>51</v>
+      <c r="A10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>62</v>
-      </c>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <f>SUM(F2:F12)</f>
@@ -1897,7 +1974,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADAB6AD-787A-48F7-90D8-ECAF8829638B}">
-  <dimension ref="B4:C6"/>
+  <dimension ref="B4:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1911,26 +1988,34 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="5">
-        <v>45916</v>
+      <c r="B5" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="5">
-        <v>45919</v>
+      <c r="B6" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E86AEBF-7CE3-45A0-89E3-1B1B423042A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F0AE52-DF62-418A-AC85-E3EAA42579DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -1687,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F0AE52-DF62-418A-AC85-E3EAA42579DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B4526E-14F3-4EAA-B9DB-7A5CDC7782F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -207,39 +207,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1. Onderzoeken wat een ballasttank inhoud of doet, en kijken wat voor Ballasttanks er zijn. 
-2. Een ballasttanks uitkiezen en een demo-versie maken.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Meerdere nettere ballasttanks maken gebaseerd op berekeningen van requirement 9, en deze toevoegen aan het schaalmodel.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1. Testen gebruik van pompen + sensor(en)</t>
     </r>
     <r>
@@ -291,6 +258,33 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">4. Het systeem heeft een algoritme om met nauwkeurigheid en precisie constant data op kan halen van de MPU-6050. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Het systeem heeft een algoritme om de pompen aan te kunnen sturen met gebruik van de afgelezen sensordata bij de MPU-6050 vandaan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. De miniatuur waterpompen kunnen binnen … minuten de ballasttanks opvullen en leeg laten lopen. </t>
+  </si>
+  <si>
+    <t>7. Het schaalmodel lijkt sprekend op het fysieke uiterlijk van
+ de Floating Farm die in de Rotterdamse Haven ligt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. De Ballasttanks kunnen de Floating Farm … graden kantelen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Het complete systeem heeft een maximale afwijking 
+van … graden tot waterpas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Het systeem is bruikbaar voor toekomstige designs en 
+uitbreidingen aan de Floating Farm. </t>
+  </si>
+  <si>
+    <t>11. Het systeem maakt gebruik van ballasttanks voor een betrouwbaar, uitbreidbaar en betaalbaar gebruik.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -299,38 +293,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1. Geschikte pompsystemen uitzoeken
+      <t xml:space="preserve">1. Onderzoeken wat een ballasttank inhoud of doet, en kijken wat voor Ballasttanks er zijn. 
+2. Een ballasttanks uitkiezen en een demo-versie maken.
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="5"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2. Testen en de beste plaatsing van de bijbehorende pompen kiezen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. Pompsysteem implementeren in het schaalmodel</t>
+      <t>3. Meerdere nettere ballasttanks maken, en deze toevoegen aan het schaalmodel.</t>
     </r>
   </si>
   <si>
@@ -350,7 +325,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="5"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -359,38 +334,35 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">4. Het systeem heeft een algoritme om met nauwkeurigheid en precisie constant data op kan halen van de MPU-6050. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Het systeem heeft een algoritme om de pompen aan te kunnen sturen met gebruik van de afgelezen sensordata bij de MPU-6050 vandaan. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. De miniatuur waterpompen kunnen binnen … minuten de ballasttanks opvullen en leeg laten lopen. </t>
-  </si>
-  <si>
-    <t>7. Het schaalmodel lijkt sprekend op het fysieke uiterlijk van
- de Floating Farm die in de Rotterdamse Haven ligt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. De Ballasttanks kunnen de Floating Farm … graden kantelen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. Het complete systeem heeft een maximale afwijking 
-van … graden tot waterpas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10. Het systeem is bruikbaar voor toekomstige designs en 
-uitbreidingen aan de Floating Farm. </t>
-  </si>
-  <si>
-    <t>11. Het systeem maakt gebruik van ballasttanks voor een betrouwbaar, uitbreidbaar en betaalbaar gebruik.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Geschikte pompsystemen uitzoeken
+2. Testen en de beste plaatsing van de bijbehorende pompen kiezen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Pompsysteem implementeren in het schaalmodel</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +399,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -449,13 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1748,16 +1727,16 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1773,7 +1752,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>26</v>
@@ -1785,7 +1764,7 @@
     </row>
     <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>19</v>
@@ -1801,13 +1780,13 @@
     </row>
     <row r="6" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
@@ -1818,16 +1797,16 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1837,13 +1816,13 @@
     </row>
     <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>38</v>
@@ -1855,7 +1834,7 @@
     </row>
     <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>32</v>
@@ -1873,7 +1852,7 @@
     </row>
     <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>35</v>
@@ -1891,7 +1870,7 @@
     </row>
     <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>40</v>
@@ -1907,15 +1886,15 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>47</v>
@@ -1996,7 +1975,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -2004,7 +1983,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -2012,10 +1991,10 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyril\Desktop\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B4526E-14F3-4EAA-B9DB-7A5CDC7782F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15010C9-1742-4B12-BEAF-A56E3EDBDF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>De sensor moet accuraat aangeven of het water pass is.
-De sensor  data moet gebruikt kunnen worden de het stabilzatie algoritme</t>
-  </si>
-  <si>
     <t>changelog</t>
   </si>
   <si>
@@ -105,16 +101,10 @@
 3. Algoritme testen en kalibreren</t>
   </si>
   <si>
-    <t>Het algortime geeft accurate data die waterpas is en gehouden word.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Als systeemeigenaar wil ik dat het systeem uit zichzelf de boerderij stabiliseert op basis van de gemeten data, zodat deze niet door een mens geregeld hoeft te worden en altijd nauwkeurig zal zijn. </t>
   </si>
   <si>
     <t>De pompen worden automatisch aangestuurd door het algoritme op basis van de sensordata</t>
-  </si>
-  <si>
-    <t>Een interface met bruikbare en relevante data die door iedereen gebruikt, bediend en bekeken kan worden</t>
   </si>
   <si>
     <t>1. Geschikte sensoren uitzoeken
@@ -162,9 +152,6 @@
   </si>
   <si>
     <t>Het schaalmodel is op 1:100 schaal van de Floating Farm, met zo veel mogelijk detail.</t>
-  </si>
-  <si>
-    <t>Het systeem heeft ten alle tijden niet meer dan … graden afwijking tot waterpas.</t>
   </si>
   <si>
     <t xml:space="preserve">Als eigenaar wil ik dat het design uitbreidbaar en herbruikbaar is, om te zorgen dat dit probleem opgelost is voordat het onstaat bij volgende Floating Farms. </t>
@@ -356,6 +343,19 @@
       </rPr>
       <t>3. Pompsysteem implementeren in het schaalmodel</t>
     </r>
+  </si>
+  <si>
+    <t>Er is een interface met bruikbare en relevante data die door iedereen gebruikt, bediend en bekeken kan worden</t>
+  </si>
+  <si>
+    <t>De sensor moet binnen 5° accuraat aangeven of het water pass is.
+De sensor  data moet gebruikt kunnen worden door het stabilzatie algoritme</t>
+  </si>
+  <si>
+    <t>Het algortime geeft instructie die max 5° van waterpas is en waterpas gehouden worden.</t>
+  </si>
+  <si>
+    <t>Het systeem heeft ten alle tijden niet meer dan 5° graden afwijking tot waterpas.</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -500,7 +500,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1666,23 +1666,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="46.90625" customWidth="1"/>
-    <col min="3" max="3" width="51.54296875" customWidth="1"/>
-    <col min="4" max="4" width="38.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1708,203 +1708,203 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1959,42 +1959,42 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyril\Desktop\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15010C9-1742-4B12-BEAF-A56E3EDBDF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098833E6-BDB1-462E-A5FA-453D508D4A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -500,7 +500,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1666,23 +1666,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" customWidth="1"/>
-    <col min="3" max="3" width="51.5546875" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.90625" customWidth="1"/>
+    <col min="3" max="3" width="51.54296875" customWidth="1"/>
+    <col min="4" max="4" width="38.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>26</v>
       </c>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -1778,7 +1778,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>53</v>
       </c>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>55</v>
       </c>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>57</v>
       </c>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1959,13 +1959,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>49</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>48</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>47</v>
       </c>

--- a/Opleverset/Documentatie/Product backlog.xlsx
+++ b/Opleverset/Documentatie/Product backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098833E6-BDB1-462E-A5FA-453D508D4A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4CA7B6-5AB9-4436-B065-C3914778BA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{D2F0FAED-A1B1-4AC7-BF59-91D91F5D52A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>Requirement</t>
   </si>
@@ -356,6 +356,15 @@
   </si>
   <si>
     <t>Het systeem heeft ten alle tijden niet meer dan 5° graden afwijking tot waterpas.</t>
+  </si>
+  <si>
+    <t>21/10/2025</t>
+  </si>
+  <si>
+    <t>Notatie aangepast en requirements afgevinkt</t>
+  </si>
+  <si>
+    <t>Kleine aanpassingen taken</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0D739-AE29-46AA-9B7E-F4AB12817690}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1953,15 +1962,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADAB6AD-787A-48F7-90D8-ECAF8829638B}">
-  <dimension ref="B4:C7"/>
+  <dimension ref="B4:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1997,6 +2006,22 @@
         <v>46</v>
       </c>
     </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="5">
+        <v>46003</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
